--- a/Practica_2/Control.xlsx
+++ b/Practica_2/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E625D63C-E7E1-4250-9793-7B0928A6668F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E10C6-E44E-49EB-B6C3-17EB492ED3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>BA_G1_Al_Prop_R</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Surface 9.4 8.4 Curve 6:3:-1 Surface 23.3 22.3 21.4 20.4 17.3 16.3 15.4 14.4 11.3 10.3</t>
+  </si>
+  <si>
+    <t>Elementos 1D</t>
+  </si>
+  <si>
+    <t>Elm 1000:1163 1200:1287</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C744B-0CC7-4FE3-95CD-D49CFCA657BC}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +512,12 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -533,6 +545,14 @@
       </c>
       <c r="E5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Practica_2/Control.xlsx
+++ b/Practica_2/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E10C6-E44E-49EB-B6C3-17EB492ED3FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2986A-93D9-4B24-8166-DE1A9F6AD76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>BA_G1_Al_Prop_R</t>
   </si>
@@ -80,6 +80,39 @@
   </si>
   <si>
     <t>Elm 1000:1163 1200:1287</t>
+  </si>
+  <si>
+    <t>RENOMBRADOS</t>
+  </si>
+  <si>
+    <t>Nodos</t>
+  </si>
+  <si>
+    <t>Elementos</t>
+  </si>
+  <si>
+    <t>Elm 1000:1163 1200:1287 2000:2783</t>
+  </si>
+  <si>
+    <t>1000:1828</t>
+  </si>
+  <si>
+    <t>Punto masa puntual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punto 100 </t>
+  </si>
+  <si>
+    <t>Nodo 1</t>
+  </si>
+  <si>
+    <t>Elemento 1</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>ID 2</t>
   </si>
 </sst>
 </file>
@@ -484,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C744B-0CC7-4FE3-95CD-D49CFCA657BC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +588,54 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practica_2/Control.xlsx
+++ b/Practica_2/Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2986A-93D9-4B24-8166-DE1A9F6AD76D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE95EA9-9848-4086-A618-229B829540C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>BA_G1_Al_Prop_R</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>ID 2</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Node 1039 1051:1144:31 1145 1152 1156:1236</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C744B-0CC7-4FE3-95CD-D49CFCA657BC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,6 +642,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Practica_2/Control.xlsx
+++ b/Practica_2/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE95EA9-9848-4086-A618-229B829540C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A4627-95FE-4262-8CE1-3D6E0D49B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
+    <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>BA_G1_Al_Prop_R</t>
   </si>
@@ -52,12 +52,6 @@
     <t>R_Int (Rectangular)</t>
   </si>
   <si>
-    <t>W=6mm</t>
-  </si>
-  <si>
-    <t>H = 12mm</t>
-  </si>
-  <si>
     <t>W=5mm</t>
   </si>
   <si>
@@ -119,6 +113,9 @@
   </si>
   <si>
     <t>Node 1039 1051:1144:31 1145 1152 1156:1236</t>
+  </si>
+  <si>
+    <t>H = 13mm</t>
   </si>
 </sst>
 </file>
@@ -472,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17277AC3-B18E-4A30-ADF1-EEFE49B07F3B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +496,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -525,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C744B-0CC7-4FE3-95CD-D49CFCA657BC}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,10 +533,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +566,7 @@
         <v>1200</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,20 +580,20 @@
         <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,48 +603,48 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Practica_2/Control.xlsx
+++ b/Practica_2/Control.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A4627-95FE-4262-8CE1-3D6E0D49B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E80C95-3CD7-4899-9877-FDED7B8F833B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
+    <workbookView xWindow="-26235" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B5153833-9BFC-4882-A0D8-136ADD70CF1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17277AC3-B18E-4A30-ADF1-EEFE49B07F3B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C744B-0CC7-4FE3-95CD-D49CFCA657BC}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
